--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -449,17 +449,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NOT APPLICABLE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NOT APPLICABLE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NOT APPLICABLE</t>
         </is>
       </c>
     </row>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -534,12 +534,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Highschool</t>
+          <t>Some College</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>SC</t>
         </is>
       </c>
     </row>
